--- a/Управление проектами/6.xlsx
+++ b/Управление проектами/6.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Руководитель проекта</t>
   </si>
   <si>
-    <t xml:space="preserve">Проанализировать возможность заимствования некоторых материалов (модулей) из сторонних источников. Это позволит сократить необходимое количество специалистов и упростит им работу.</t>
+    <t xml:space="preserve">Создание комфортных условий труда для сотрудников, поддержание дружественной атмосферы в коллективе, предоставление возможности работы на дому (например, когда сотрудник заболел)</t>
   </si>
   <si>
     <t xml:space="preserve">Затрата времени на поиск существующих решений</t>
@@ -382,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,16 +395,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -427,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,23 +585,23 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -626,26 +618,26 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="6" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U3" s="2"/>
@@ -656,37 +648,37 @@
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -698,16 +690,16 @@
       <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U4" s="2"/>
@@ -718,58 +710,58 @@
     <row r="5" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U5" s="2"/>
@@ -780,37 +772,37 @@
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -822,16 +814,16 @@
       <c r="P6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U6" s="2"/>
@@ -842,37 +834,37 @@
     <row r="7" customFormat="false" ht="111.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -884,16 +876,16 @@
       <c r="P7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U7" s="2"/>
@@ -904,37 +896,37 @@
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -946,16 +938,16 @@
       <c r="P8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="U8" s="2"/>
@@ -966,37 +958,37 @@
     <row r="9" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -1008,16 +1000,16 @@
       <c r="P9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="U9" s="2"/>
@@ -1236,16 +1228,16 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="2"/>
@@ -1270,13 +1262,13 @@
     <row r="19" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1304,16 +1296,16 @@
     <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="2"/>
@@ -1338,16 +1330,16 @@
     <row r="21" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="2"/>
@@ -1372,16 +1364,16 @@
     <row r="22" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G22" s="2"/>
@@ -1406,14 +1398,14 @@
     <row r="23" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1436,9 +1428,9 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1462,9 +1454,9 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1488,9 +1480,9 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1514,9 +1506,9 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1540,9 +1532,9 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1566,9 +1558,9 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1592,9 +1584,9 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1618,9 +1610,9 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1644,9 +1636,9 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1670,9 +1662,9 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1696,9 +1688,9 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
